--- a/src/output/data/combined_df_w_existing_label.xlsx
+++ b/src/output/data/combined_df_w_existing_label.xlsx
@@ -744,7 +744,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -876,7 +876,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1412,7 +1412,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1566,7 +1566,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1736,7 +1736,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1814,7 +1814,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2176,7 +2176,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2230,7 +2230,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2338,7 +2338,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2450,7 +2450,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2792,7 +2792,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
